--- a/lib/Lockers.xlsx
+++ b/lib/Lockers.xlsx
@@ -408,7 +408,7 @@
         <v>412462</v>
       </c>
       <c r="G2" s="0" t="str">
-        <v>1215</v>
+        <v>72067</v>
       </c>
     </row>
   </sheetData>
